--- a/relaxation_formula_ex.xlsx
+++ b/relaxation_formula_ex.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>read values</t>
   </si>
@@ -47,10 +47,16 @@
     <t>Iteration 35</t>
   </si>
   <si>
-    <t>Iteration 39</t>
+    <t>Iteration 40</t>
   </si>
   <si>
-    <t>Iteration 40</t>
+    <t>Iteration 45</t>
+  </si>
+  <si>
+    <t>Iteration 49</t>
+  </si>
+  <si>
+    <t>Iteration 50</t>
   </si>
 </sst>
 </file>
@@ -386,7 +392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF24"/>
+  <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1434,97 +1440,97 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1.95787118761012</v>
+        <v>1.957876882536592</v>
       </c>
       <c r="C22" t="n">
-        <v>3.915753765073184</v>
+        <v>3.915760380945961</v>
       </c>
       <c r="D22" t="n">
-        <v>5.873649574281802</v>
+        <v>5.873646608453648</v>
       </c>
       <c r="E22" t="n">
-        <v>6.820712319463297</v>
+        <v>6.820920258653798</v>
       </c>
       <c r="F22" t="n">
-        <v>7.768190943025794</v>
+        <v>7.767973785810548</v>
       </c>
       <c r="G22" t="n">
-        <v>6.859025538642181</v>
+        <v>6.8633967595902</v>
       </c>
       <c r="H22" t="n">
-        <v>5.958602576154606</v>
+        <v>5.953215519522138</v>
       </c>
       <c r="I22" t="n">
-        <v>5.047405500402096</v>
+        <v>5.060382221691317</v>
       </c>
       <c r="J22" t="n">
-        <v>4.162161867228027</v>
+        <v>4.149116405367325</v>
       </c>
       <c r="K22" t="n">
-        <v>3.250827310332553</v>
+        <v>3.271278292419738</v>
       </c>
       <c r="L22" t="n">
-        <v>3.194229594870665</v>
+        <v>3.12719694533031</v>
       </c>
       <c r="M22" t="n">
-        <v>3.003566580328067</v>
+        <v>3.135625642732776</v>
       </c>
       <c r="N22" t="n">
-        <v>3.077021690594888</v>
+        <v>2.934021775813674</v>
       </c>
       <c r="O22" t="n">
-        <v>2.864476971299282</v>
+        <v>3.054531634332565</v>
       </c>
       <c r="P22" t="n">
-        <v>3.032041578070243</v>
+        <v>2.871300177236803</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.878123383174324</v>
+        <v>3.047181440866214</v>
       </c>
       <c r="R22" t="n">
-        <v>2.406139401632456</v>
+        <v>2.265044226666975</v>
       </c>
       <c r="S22" t="n">
-        <v>1.651965070159624</v>
+        <v>1.795416442369739</v>
       </c>
       <c r="T22" t="n">
-        <v>1.184693483107021</v>
+        <v>1.094192906891038</v>
       </c>
       <c r="U22" t="n">
-        <v>0.5364207436224517</v>
+        <v>0.5923467415535105</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>5.256237691000877</v>
+        <v>5.256628689022063</v>
       </c>
       <c r="X22" t="n">
-        <v>4.566286890220619</v>
+        <v>4.565504894178249</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.874772097355621</v>
+        <v>3.880459129499564</v>
       </c>
       <c r="Z22" t="n">
-        <v>3.194631368778509</v>
+        <v>3.193138551963302</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.511505006570983</v>
+        <v>2.517420828415218</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.840210288051927</v>
+        <v>1.839336776129441</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.167168545687899</v>
+        <v>1.168042057610385</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.9998781666836294</v>
+        <v>0.9999014347765751</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.9998028695531502</v>
+        <v>0.9998405181183898</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -1537,97 +1543,303 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1.95787118761012</v>
+        <v>1.957892366154776</v>
       </c>
       <c r="C24" t="n">
-        <v>3.915753765073184</v>
+        <v>3.915775652032607</v>
       </c>
       <c r="D24" t="n">
-        <v>5.873649574281802</v>
+        <v>5.873693645677123</v>
       </c>
       <c r="E24" t="n">
-        <v>6.820712319463297</v>
+        <v>6.82097885545077</v>
       </c>
       <c r="F24" t="n">
-        <v>7.768190943025794</v>
+        <v>7.768771736593809</v>
       </c>
       <c r="G24" t="n">
-        <v>6.859025538642181</v>
+        <v>6.86328488884233</v>
       </c>
       <c r="H24" t="n">
-        <v>5.958602576154606</v>
+        <v>5.966624919345112</v>
       </c>
       <c r="I24" t="n">
-        <v>5.047405500402096</v>
+        <v>5.057583771611233</v>
       </c>
       <c r="J24" t="n">
-        <v>4.162161867228027</v>
+        <v>4.171384001944669</v>
       </c>
       <c r="K24" t="n">
-        <v>3.250827310332553</v>
+        <v>3.262779303653518</v>
       </c>
       <c r="L24" t="n">
-        <v>3.194229594870665</v>
+        <v>3.21871123322543</v>
       </c>
       <c r="M24" t="n">
-        <v>3.003566580328067</v>
+        <v>3.076405706019687</v>
       </c>
       <c r="N24" t="n">
-        <v>3.077021690594888</v>
+        <v>3.125378135491957</v>
       </c>
       <c r="O24" t="n">
-        <v>2.864476971299282</v>
+        <v>2.967387844668936</v>
       </c>
       <c r="P24" t="n">
-        <v>3.032041578070243</v>
+        <v>3.082827306546332</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.878123383174324</v>
+        <v>2.967785023673128</v>
       </c>
       <c r="R24" t="n">
-        <v>2.406139401632456</v>
+        <v>2.447442412843068</v>
       </c>
       <c r="S24" t="n">
-        <v>1.651965070159624</v>
+        <v>1.726661419617554</v>
       </c>
       <c r="T24" t="n">
-        <v>1.184693483107021</v>
+        <v>1.209890294747355</v>
       </c>
       <c r="U24" t="n">
-        <v>0.5364207436224517</v>
+        <v>0.5652752243115473</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>5.256237691000877</v>
+        <v>5.256982575526294</v>
       </c>
       <c r="X24" t="n">
-        <v>4.566286890220619</v>
+        <v>4.571661657142053</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.874772097355621</v>
+        <v>3.885606378006164</v>
       </c>
       <c r="Z24" t="n">
-        <v>3.194631368778509</v>
+        <v>3.204891705601405</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.511505006570983</v>
+        <v>2.522775151255841</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.840210288051927</v>
+        <v>1.846214056814615</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.167168545687899</v>
+        <v>1.168832660352458</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.9998781666836294</v>
+        <v>0.9999658404663023</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.9998028695531502</v>
+        <v>0.9999447287134373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.957899768165779</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.915787037144137</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.873709737213938</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.821115690794401</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.768992008391665</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.86545863481025</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.969776911091074</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.06275025717025</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.175320148990238</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.268796219100762</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.2306307540499</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3.113046423358095</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.149385329611595</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.019223048680792</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.108485267520068</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3.013049865029405</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.468738733590958</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.764460012427384</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.223063841232278</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.5798949831968054</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>5.257243603418763</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4.573545122385358</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3.889403006072857</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>3.208487208102043</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2.52672451807365</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.848317941522381</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.169415811637841</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.9999853666920573</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.9999763228103808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.957899768165779</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.915787037144137</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.873709737213938</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.821115690794401</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7.768992008391665</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6.86545863481025</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.969776911091074</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.06275025717025</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.175320148990238</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.268796219100762</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.2306307540499</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3.113046423358095</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.149385329611595</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3.019223048680792</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.108485267520068</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3.013049865029405</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.468738733590958</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.764460012427384</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.223063841232278</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.5798949831968054</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>5.257243603418763</v>
+      </c>
+      <c r="X28" t="n">
+        <v>4.573545122385358</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3.889403006072857</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>3.208487208102043</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2.52672451807365</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.848317941522381</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1.169415811637841</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.9999853666920573</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.9999763228103808</v>
       </c>
     </row>
   </sheetData>
